--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ereg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ereg-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.439892</v>
+        <v>0.4398919999999999</v>
       </c>
       <c r="H2">
         <v>1.319676</v>
       </c>
       <c r="I2">
-        <v>0.9022759344950937</v>
+        <v>0.719974794695429</v>
       </c>
       <c r="J2">
-        <v>0.9326569439222482</v>
+        <v>0.794097205716256</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>0.250665417928</v>
+        <v>1.178751539042</v>
       </c>
       <c r="R2">
-        <v>1.503992507568</v>
+        <v>7.072509234252</v>
       </c>
       <c r="S2">
-        <v>0.0069210022309195</v>
+        <v>0.02832952493589154</v>
       </c>
       <c r="T2">
-        <v>0.005304074174003886</v>
+        <v>0.02257041985718647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.439892</v>
+        <v>0.4398919999999999</v>
       </c>
       <c r="H3">
         <v>1.319676</v>
       </c>
       <c r="I3">
-        <v>0.9022759344950937</v>
+        <v>0.719974794695429</v>
       </c>
       <c r="J3">
-        <v>0.9326569439222482</v>
+        <v>0.794097205716256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
         <v>22.03965153918</v>
       </c>
       <c r="R3">
-        <v>198.3568638526201</v>
+        <v>198.35686385262</v>
       </c>
       <c r="S3">
-        <v>0.6085262128785833</v>
+        <v>0.5296899619448244</v>
       </c>
       <c r="T3">
-        <v>0.6995377393856587</v>
+        <v>0.6330140478327565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.439892</v>
+        <v>0.4398919999999999</v>
       </c>
       <c r="H4">
         <v>1.319676</v>
       </c>
       <c r="I4">
-        <v>0.9022759344950937</v>
+        <v>0.719974794695429</v>
       </c>
       <c r="J4">
-        <v>0.9326569439222482</v>
+        <v>0.794097205716256</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>0.1782198977093334</v>
+        <v>0.1224687187826666</v>
       </c>
       <c r="R4">
-        <v>1.603979079384</v>
+        <v>1.102218469044</v>
       </c>
       <c r="S4">
-        <v>0.004920743833897481</v>
+        <v>0.00294335193440339</v>
       </c>
       <c r="T4">
-        <v>0.005656693080446445</v>
+        <v>0.003517497509962524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.439892</v>
+        <v>0.4398919999999999</v>
       </c>
       <c r="H5">
         <v>1.319676</v>
       </c>
       <c r="I5">
-        <v>0.9022759344950937</v>
+        <v>0.719974794695429</v>
       </c>
       <c r="J5">
-        <v>0.9326569439222482</v>
+        <v>0.794097205716256</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>9.632511535778001</v>
+        <v>5.748400222621998</v>
       </c>
       <c r="R5">
-        <v>57.795069214668</v>
+        <v>34.490401335732</v>
       </c>
       <c r="S5">
-        <v>0.2659586407233341</v>
+        <v>0.1381541758839239</v>
       </c>
       <c r="T5">
-        <v>0.2038237108654131</v>
+        <v>0.1100688331971712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.439892</v>
+        <v>0.4398919999999999</v>
       </c>
       <c r="H6">
         <v>1.319676</v>
       </c>
       <c r="I6">
-        <v>0.9022759344950937</v>
+        <v>0.719974794695429</v>
       </c>
       <c r="J6">
-        <v>0.9326569439222482</v>
+        <v>0.794097205716256</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>0.4526622113906666</v>
+        <v>0.8196060412466665</v>
       </c>
       <c r="R6">
-        <v>4.073959902516</v>
+        <v>7.376454371219998</v>
       </c>
       <c r="S6">
-        <v>0.01249823849170782</v>
+        <v>0.01969800166876174</v>
       </c>
       <c r="T6">
-        <v>0.01436748214909941</v>
+        <v>0.02354039658364929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.439892</v>
+        <v>0.4398919999999999</v>
       </c>
       <c r="H7">
         <v>1.319676</v>
       </c>
       <c r="I7">
-        <v>0.9022759344950937</v>
+        <v>0.719974794695429</v>
       </c>
       <c r="J7">
-        <v>0.9326569439222482</v>
+        <v>0.794097205716256</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>0.1249920859253333</v>
+        <v>0.04825673892266666</v>
       </c>
       <c r="R7">
-        <v>1.124928773328</v>
+        <v>0.434310650304</v>
       </c>
       <c r="S7">
-        <v>0.003451096336651403</v>
+        <v>0.001159778327624124</v>
       </c>
       <c r="T7">
-        <v>0.003967244267626874</v>
+        <v>0.00138601073553009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.047644</v>
+        <v>0.1710905</v>
       </c>
       <c r="H8">
-        <v>0.095288</v>
+        <v>0.342181</v>
       </c>
       <c r="I8">
-        <v>0.0977240655049063</v>
+        <v>0.2800252053045709</v>
       </c>
       <c r="J8">
-        <v>0.06734305607775179</v>
+        <v>0.2059027942837441</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>0.027149171096</v>
+        <v>0.4584606907842501</v>
       </c>
       <c r="R8">
-        <v>0.108596684384</v>
+        <v>1.833842763137</v>
       </c>
       <c r="S8">
-        <v>0.0007496026985940381</v>
+        <v>0.01101841494285905</v>
       </c>
       <c r="T8">
-        <v>0.0003829838686863156</v>
+        <v>0.00585232196171782</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.047644</v>
+        <v>0.1710905</v>
       </c>
       <c r="H9">
-        <v>0.095288</v>
+        <v>0.342181</v>
       </c>
       <c r="I9">
-        <v>0.0977240655049063</v>
+        <v>0.2800252053045709</v>
       </c>
       <c r="J9">
-        <v>0.06734305607775179</v>
+        <v>0.2059027942837441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>2.38707946026</v>
+        <v>8.5720472335575</v>
       </c>
       <c r="R9">
-        <v>14.32247676156</v>
+        <v>51.432283401345</v>
       </c>
       <c r="S9">
-        <v>0.06590850228325867</v>
+        <v>0.2060162958956312</v>
       </c>
       <c r="T9">
-        <v>0.05051054358083396</v>
+        <v>0.1641352725225438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.047644</v>
+        <v>0.1710905</v>
       </c>
       <c r="H10">
-        <v>0.095288</v>
+        <v>0.342181</v>
       </c>
       <c r="I10">
-        <v>0.0977240655049063</v>
+        <v>0.2800252053045709</v>
       </c>
       <c r="J10">
-        <v>0.06734305607775179</v>
+        <v>0.2059027942837441</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>0.01930271249866667</v>
+        <v>0.04763267877316667</v>
       </c>
       <c r="R10">
-        <v>0.115816274992</v>
+        <v>0.285796072639</v>
       </c>
       <c r="S10">
-        <v>0.0005329579060819737</v>
+        <v>0.001144779978115181</v>
       </c>
       <c r="T10">
-        <v>0.0004084449290959151</v>
+        <v>0.0009120578198409963</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.047644</v>
+        <v>0.1710905</v>
       </c>
       <c r="H11">
-        <v>0.095288</v>
+        <v>0.342181</v>
       </c>
       <c r="I11">
-        <v>0.0977240655049063</v>
+        <v>0.2800252053045709</v>
       </c>
       <c r="J11">
-        <v>0.06734305607775179</v>
+        <v>0.2059027942837441</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>1.043281941046</v>
+        <v>2.23576848019175</v>
       </c>
       <c r="R11">
-        <v>4.173127764184</v>
+        <v>8.943073920766999</v>
       </c>
       <c r="S11">
-        <v>0.0288055556332521</v>
+        <v>0.05373334143168886</v>
       </c>
       <c r="T11">
-        <v>0.01471721374105726</v>
+        <v>0.02853993208351234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.047644</v>
+        <v>0.1710905</v>
       </c>
       <c r="H12">
-        <v>0.095288</v>
+        <v>0.342181</v>
       </c>
       <c r="I12">
-        <v>0.0977240655049063</v>
+        <v>0.2800252053045709</v>
       </c>
       <c r="J12">
-        <v>0.06734305607775179</v>
+        <v>0.2059027942837441</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>0.04902712120133333</v>
+        <v>0.3187755344491666</v>
       </c>
       <c r="R12">
-        <v>0.294162727208</v>
+        <v>1.912653206695</v>
       </c>
       <c r="S12">
-        <v>0.001353664250995534</v>
+        <v>0.007661291759134699</v>
       </c>
       <c r="T12">
-        <v>0.001037412697528321</v>
+        <v>0.006103828851467858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.047644</v>
+        <v>0.1710905</v>
       </c>
       <c r="H13">
-        <v>0.095288</v>
+        <v>0.342181</v>
       </c>
       <c r="I13">
-        <v>0.0977240655049063</v>
+        <v>0.2800252053045709</v>
       </c>
       <c r="J13">
-        <v>0.06734305607775179</v>
+        <v>0.2059027942837441</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>0.01353769321066667</v>
+        <v>0.01876885597066667</v>
       </c>
       <c r="R13">
-        <v>0.08122615926399999</v>
+        <v>0.112613135824</v>
       </c>
       <c r="S13">
-        <v>0.0003737827327239856</v>
+        <v>0.0004510812971419694</v>
       </c>
       <c r="T13">
-        <v>0.0002864572605500361</v>
+        <v>0.0003593810446612819</v>
       </c>
     </row>
   </sheetData>
